--- a/reports/LEGAL-OFFICE.xlsx
+++ b/reports/LEGAL-OFFICE.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="15">
   <si>
     <t>Sr.No</t>
   </si>
@@ -22,34 +22,34 @@
     <t>Parameters</t>
   </si>
   <si>
+    <t>JAYESH  PATIL</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>In Time</t>
+  </si>
+  <si>
+    <t>Out Time</t>
+  </si>
+  <si>
     <t xml:space="preserve">BHAVIN   PADMANI </t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>In Time</t>
-  </si>
-  <si>
-    <t>Out Time</t>
+    <t>JATIN  PATEL</t>
+  </si>
+  <si>
+    <t>AMIT  KAKLOTAR</t>
   </si>
   <si>
     <t>NILESH   KHUNT</t>
-  </si>
-  <si>
-    <t>JAYESH  PATIL</t>
-  </si>
-  <si>
-    <t>JATIN  PATEL</t>
-  </si>
-  <si>
-    <t>AMIT  KAKLOTAR</t>
   </si>
   <si>
     <t>P =&gt; Present</t>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:AI22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -548,7 +548,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M2" t="s">
         <v>5</v>
@@ -607,43 +607,43 @@
         <v>5</v>
       </c>
       <c r="T2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V2" t="s">
         <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC2" t="s">
         <v>5</v>
       </c>
       <c r="AD2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="s">
         <v>5</v>
       </c>
       <c r="AF2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="s">
         <v>5</v>
@@ -651,18 +651,21 @@
       <c r="AH2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="AI2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -691,13 +694,13 @@
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" t="s">
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
@@ -724,59 +727,62 @@
         <v>5</v>
       </c>
       <c r="U5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V5" t="s">
         <v>5</v>
       </c>
       <c r="W5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC5" t="s">
         <v>5</v>
       </c>
       <c r="AD5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="AI5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -805,13 +811,13 @@
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" t="s">
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="s">
         <v>5</v>
@@ -844,53 +850,56 @@
         <v>5</v>
       </c>
       <c r="W8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC8" t="s">
         <v>5</v>
       </c>
       <c r="AD8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="AI8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -958,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="W11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X11" t="s">
         <v>5</v>
@@ -993,18 +1002,21 @@
       <c r="AH11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="AI11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1039,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="L14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M14" t="s">
         <v>5</v>
@@ -1081,39 +1093,42 @@
         <v>5</v>
       </c>
       <c r="Z14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC14" t="s">
         <v>5</v>
       </c>
       <c r="AD14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="AI14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>8</v>
       </c>
